--- a/utils/src/accounts.xlsx
+++ b/utils/src/accounts.xlsx
@@ -816,7 +816,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>

--- a/utils/src/accounts.xlsx
+++ b/utils/src/accounts.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
     <sheet name="Texts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Accounts</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>kotakafly@gmail.com</t>
+  </si>
+  <si>
+    <t>napieramifly@gmail.com</t>
+  </si>
+  <si>
+    <t>Column 5</t>
+  </si>
+  <si>
+    <t>Column 6</t>
+  </si>
+  <si>
+    <t>Column 7</t>
+  </si>
+  <si>
+    <t>Column 8</t>
   </si>
 </sst>
 </file>
@@ -815,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,20 +877,24 @@
         <v>15</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1386,28 +1405,28 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="5" width="25.7109375" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" customWidth="1"/>
+    <col min="2" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1423,8 +1442,20 @@
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1434,8 +1465,12 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1443,8 +1478,12 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1452,14 +1491,12 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="G4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1467,14 +1504,12 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="G5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1482,8 +1517,12 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1491,8 +1530,12 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1500,6 +1543,27 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/utils/src/accounts.xlsx
+++ b/utils/src/accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Accounts</t>
   </si>
@@ -87,19 +87,7 @@
     <t>Row:</t>
   </si>
   <si>
-    <t>kusterfly@gmail.com</t>
-  </si>
-  <si>
-    <t>n1a2u3a4k5</t>
-  </si>
-  <si>
     <t>Come up to meet you, tell you I'm sorry You don't know how lovely you are I had to find you, tell you I need you Tell you I set you apart</t>
-  </si>
-  <si>
-    <t>kotakafly@gmail.com</t>
-  </si>
-  <si>
-    <t>napieramifly@gmail.com</t>
   </si>
   <si>
     <t>Column 5</t>
@@ -830,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,45 +844,33 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="7"/>
       <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1402,13 +1378,8 @@
       <c r="Y21" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1416,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1443,16 +1414,16 @@
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1460,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>

--- a/utils/src/accounts.xlsx
+++ b/utils/src/accounts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Accounts</t>
   </si>
@@ -100,6 +100,159 @@
   </si>
   <si>
     <t>Column 8</t>
+  </si>
+  <si>
+    <t>haruto.tanaka.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>yui.sato.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>hiroshi.suzuki.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>aiko.yamamoto.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>ayumi.watanabe.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>daiki.yamazaki.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>yuna.inoue.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>shohei.kimura.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>sakura.shimizu.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>kaito.matsumoto.shy@gmail.com</t>
+  </si>
+  <si>
+    <t>ivan.horvat.day@gmail.com</t>
+  </si>
+  <si>
+    <t>marija.babic.day@gmail.com</t>
+  </si>
+  <si>
+    <t>filip.juric.day@gmail.com</t>
+  </si>
+  <si>
+    <t>ivana.petrovic.day@gmail.com</t>
+  </si>
+  <si>
+    <t>dijana.matic.day@gmail.com</t>
+  </si>
+  <si>
+    <t>damir.peric.day@gmail.com</t>
+  </si>
+  <si>
+    <t>mirna.knez.day@gmail.com</t>
+  </si>
+  <si>
+    <t>darko.vlahovic.day@gmail.com</t>
+  </si>
+  <si>
+    <t>danijela.zubac.day@gmail.com</t>
+  </si>
+  <si>
+    <t>igor.majstorovic.day@gmail.com</t>
+  </si>
+  <si>
+    <t>andrei.smirnov.die@gmail.com</t>
+  </si>
+  <si>
+    <t>olga.popova.die@gmail.com</t>
+  </si>
+  <si>
+    <t>ekaterina.kusnetsov.die@gmail.com</t>
+  </si>
+  <si>
+    <t>anna.morozova.die@gmail.com</t>
+  </si>
+  <si>
+    <t>pavel.pavlov.die@gmail.com</t>
+  </si>
+  <si>
+    <t>aleksey.abramov.die@gmail.com</t>
+  </si>
+  <si>
+    <t>mikhail.volkov.die@gmail.com</t>
+  </si>
+  <si>
+    <t>dmitri.tarasov.die@gmail.com</t>
+  </si>
+  <si>
+    <t>natalya.romanova.die@gmail.com</t>
+  </si>
+  <si>
+    <t>nikolai.sokolov.die@gmail.com</t>
+  </si>
+  <si>
+    <t>lars.kruger.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>angela.lange.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>anja.keller.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>markus.wagner.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>petra.huber.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>hans.fischer.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>karl.meier.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>peter.vogel.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>karin.braun.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>silke.krause.sun@gmail.com</t>
+  </si>
+  <si>
+    <t>layla.hamid.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>amira.hadi.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>jamal.ali.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>zahra.nassir.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>khalid.hassan.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>hamza.saadi.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>malik.jaber.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>omar.mustafa.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>youssef.khalil.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>bassam.salah.cry@gmail.com</t>
+  </si>
+  <si>
+    <t>n1a2u3a4k5</t>
   </si>
 </sst>
 </file>
@@ -160,7 +313,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +362,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -225,19 +384,6 @@
       <right style="medium">
         <color theme="7"/>
       </right>
-      <top style="medium">
-        <color theme="7"/>
-      </top>
-      <bottom style="medium">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="7"/>
-      </left>
-      <right/>
       <top style="medium">
         <color theme="7"/>
       </top>
@@ -413,55 +559,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,16 +968,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -841,22 +993,30 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="7"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -864,12 +1024,16 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="7"/>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
       <c r="I4" s="1"/>
@@ -894,12 +1058,16 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>5</v>
       </c>
       <c r="I5" s="1"/>
@@ -924,8 +1092,12 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -949,8 +1121,12 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -975,8 +1151,12 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1004,8 +1184,12 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1033,8 +1217,12 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1062,8 +1250,12 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1091,8 +1283,12 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1120,8 +1316,12 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1149,8 +1349,12 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1178,8 +1382,12 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1207,8 +1415,12 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1236,8 +1448,12 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1265,8 +1481,12 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1294,8 +1514,12 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1323,8 +1547,12 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1352,8 +1580,12 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1377,9 +1609,390 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B37" r:id="rId34"/>
+    <hyperlink ref="B38" r:id="rId35"/>
+    <hyperlink ref="B39" r:id="rId36"/>
+    <hyperlink ref="B40" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B42" r:id="rId39"/>
+    <hyperlink ref="B43" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41"/>
+    <hyperlink ref="B45" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B48" r:id="rId45"/>
+    <hyperlink ref="B49" r:id="rId46"/>
+    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B51" r:id="rId48"/>
+    <hyperlink ref="B5" r:id="rId49"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -1430,109 +2043,109 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>1</v>
       </c>
     </row>
